--- a/src/assets/Template Excel/Layout_Tass_Size.xlsx
+++ b/src/assets/Template Excel/Layout_Tass_Size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TABLE SRI\NEW 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Worktools SRI\Frontend\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DC661E-49FA-47C2-839F-056CA5E34FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2230B952-6502-423D-9325-34829A1AE638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4386B32B-3324-47E2-AD2E-204A2FA7D49D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4386B32B-3324-47E2-AD2E-204A2FA7D49D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tass Size" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>SIZE_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CAPACITY</t>
   </si>
   <si>
-    <t>MACHINETASSTYPE_ID</t>
+    <t>TASS_SIZE_ID</t>
+  </si>
+  <si>
+    <t>NOMER</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>MACHINE_TASS_TYPE</t>
   </si>
 </sst>
 </file>
@@ -115,22 +121,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,143 +645,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94D3C14-DD45-4969-8C25-2B523B41438A}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A3:C3">
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
     <cfRule type="duplicateValues" dxfId="10" priority="14"/>
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A4:C4">
     <cfRule type="duplicateValues" dxfId="8" priority="16"/>
     <cfRule type="duplicateValues" dxfId="7" priority="17"/>
     <cfRule type="expression" dxfId="6" priority="18">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A5:C5">
     <cfRule type="duplicateValues" dxfId="5" priority="19"/>
     <cfRule type="duplicateValues" dxfId="4" priority="20"/>
     <cfRule type="expression" dxfId="3" priority="21">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A6:C6">
     <cfRule type="duplicateValues" dxfId="2" priority="22"/>
     <cfRule type="duplicateValues" dxfId="1" priority="23"/>
     <cfRule type="expression" dxfId="0" priority="24">
